--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_sampling.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_sampling.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>wd_cm</t>
+          <t>wd_m</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,10 +456,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D2">
         <v>2734822.966</v>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D3">
         <v>2734821.586</v>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D4">
         <v>2734820.122</v>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D5">
         <v>2734822.048</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D6">
         <v>2734820.51</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D7">
         <v>2734819.422</v>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="D8">
         <v>2734842.711</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D9">
         <v>2734840.93</v>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
         <v>2734839.109</v>
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>2734848.046</v>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D12">
         <v>2734847.009</v>
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D13">
         <v>2734844.813</v>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D14">
         <v>2736794.555</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="D15">
         <v>2736795.293</v>
@@ -1352,10 +1352,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D16">
         <v>2736797.722</v>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D17">
         <v>2736788.393</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D18">
         <v>2736790.236</v>
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D19">
         <v>2736791.653</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <v>2736779.218</v>
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D21">
         <v>2736779.933</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D22">
         <v>2736780.461</v>
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D23">
         <v>2736773.965</v>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D24">
         <v>2736774.94</v>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D25">
         <v>2736775.968</v>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D26">
         <v>2729452.93</v>
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D27">
         <v>2729453.503</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="D28">
         <v>2729455.95</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D29">
         <v>2729467.877</v>
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D30">
         <v>2729468.705</v>
@@ -2312,10 +2312,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>1.29</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D31">
         <v>2729472.058</v>
@@ -2376,10 +2376,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D32">
         <v>2729479.749</v>
@@ -2440,10 +2440,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D33">
         <v>2729481.799</v>
@@ -2504,10 +2504,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="C34">
-        <v>67</v>
+        <v>0.67</v>
       </c>
       <c r="D34">
         <v>2729484.994</v>
@@ -2568,10 +2568,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="D35">
         <v>2729492.519</v>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D36">
         <v>2729492.55</v>
@@ -2696,10 +2696,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D37">
         <v>2729483.169</v>
@@ -2760,10 +2760,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D38">
         <v>2724226.173</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D39">
         <v>2724223.029</v>
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D40">
         <v>2724220.552</v>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D41">
         <v>2724246.208</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D42">
         <v>2724242.675</v>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D43">
         <v>2724239.893</v>
@@ -3144,10 +3144,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="D44">
         <v>2724271.197</v>
@@ -3208,10 +3208,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D45">
         <v>2724266.559</v>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="D46">
         <v>2724262.863</v>
@@ -3336,10 +3336,10 @@
         </is>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D47">
         <v>2724301.635</v>
@@ -3400,10 +3400,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D48">
         <v>2724299.362</v>
@@ -3464,10 +3464,10 @@
         </is>
       </c>
       <c r="B49">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D49">
         <v>2724296.812</v>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D50">
         <v>2723228.944</v>
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D51">
         <v>2723231.037</v>
@@ -3656,10 +3656,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C52">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="D52">
         <v>2723233.635</v>
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D53">
         <v>2723247.566</v>
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D54">
         <v>2723247.176</v>
@@ -3848,10 +3848,10 @@
         </is>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C55">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D55">
         <v>2723253.1</v>
@@ -3912,10 +3912,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D56">
         <v>2723269.258</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D57">
         <v>2723272.918</v>
@@ -4040,10 +4040,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C58">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="D58">
         <v>2723280.564</v>
@@ -4104,10 +4104,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D59">
         <v>2723285.605</v>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C60">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D60">
         <v>2723291.038</v>
@@ -4232,10 +4232,10 @@
         </is>
       </c>
       <c r="B61">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D61">
         <v>2723297.98</v>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D62">
         <v>2723366.066</v>
@@ -4360,10 +4360,10 @@
         </is>
       </c>
       <c r="B63">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D63">
         <v>2723359.849</v>
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C64">
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="D64">
         <v>2723353.398</v>
@@ -4488,10 +4488,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D65">
         <v>2723333.9</v>
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D66">
         <v>2723329.101</v>
@@ -4616,10 +4616,10 @@
         </is>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C67">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="D67">
         <v>2723325.553</v>
@@ -4680,10 +4680,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="D68">
         <v>2723215.171</v>
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="B69">
-        <v>139</v>
+        <v>1.39</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D69">
         <v>2723201.949</v>
@@ -4808,10 +4808,10 @@
         </is>
       </c>
       <c r="B70">
-        <v>135</v>
+        <v>1.35</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D70">
         <v>2723184.903</v>
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D71">
         <v>2723219.139</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C72">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D72">
         <v>2723211.554</v>
@@ -5000,10 +5000,10 @@
         </is>
       </c>
       <c r="B73">
-        <v>94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>0.71</v>
       </c>
       <c r="D73">
         <v>2723203.218</v>
@@ -5064,10 +5064,10 @@
         </is>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="D74">
         <v>2742136.499</v>
@@ -5128,10 +5128,10 @@
         </is>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C75">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="D75">
         <v>2742133.302</v>
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C76">
-        <v>106</v>
+        <v>1.06</v>
       </c>
       <c r="D76">
         <v>2742128.621</v>
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D77">
         <v>2742123.285</v>
@@ -5320,10 +5320,10 @@
         </is>
       </c>
       <c r="B78">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="C78">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D78">
         <v>2742118.852</v>
@@ -5384,10 +5384,10 @@
         </is>
       </c>
       <c r="B79">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C79">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D79">
         <v>2742116.269</v>
@@ -5448,10 +5448,10 @@
         </is>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D80">
         <v>2742118.569</v>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="B81">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C81">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D81">
         <v>2742115.15</v>
@@ -5576,10 +5576,10 @@
         </is>
       </c>
       <c r="B82">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="C82">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D82">
         <v>2742112.858</v>
@@ -5640,10 +5640,10 @@
         </is>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D83">
         <v>2742159.694</v>
@@ -5704,10 +5704,10 @@
         </is>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C84">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D84">
         <v>2742154.977</v>
@@ -5768,10 +5768,10 @@
         </is>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C85">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="D85">
         <v>2742150.3</v>
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C86">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D86">
         <v>2743458.686</v>
@@ -5896,10 +5896,10 @@
         </is>
       </c>
       <c r="B87">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C87">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="D87">
         <v>2743462.07</v>
@@ -5960,10 +5960,10 @@
         </is>
       </c>
       <c r="B88">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C88">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="D88">
         <v>2743464.677</v>
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D89">
         <v>2743416.296</v>
@@ -6088,10 +6088,10 @@
         </is>
       </c>
       <c r="B90">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C90">
-        <v>46</v>
+        <v>0.46</v>
       </c>
       <c r="D90">
         <v>2743416.808</v>
@@ -6152,10 +6152,10 @@
         </is>
       </c>
       <c r="B91">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C91">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="D91">
         <v>2743417.595</v>
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B92">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C92">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D92">
         <v>2743372.595</v>
@@ -6280,10 +6280,10 @@
         </is>
       </c>
       <c r="B93">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="C93">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D93">
         <v>2743369.91</v>
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="B94">
-        <v>113</v>
+        <v>1.13</v>
       </c>
       <c r="C94">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D94">
         <v>2743363.472</v>
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D95">
         <v>2743378.786</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="B96">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C96">
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="D96">
         <v>2743375.546</v>
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="B97">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C97">
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="D97">
         <v>2743372.187</v>
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D98">
         <v>2743332.409</v>
@@ -6664,10 +6664,10 @@
         </is>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="C99">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D99">
         <v>2743330.389</v>
@@ -6728,10 +6728,10 @@
         </is>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C100">
-        <v>89</v>
+        <v>0.89</v>
       </c>
       <c r="D100">
         <v>2743329.05</v>
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="D101">
         <v>2743344.568</v>
@@ -6856,10 +6856,10 @@
         </is>
       </c>
       <c r="B102">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C102">
-        <v>57</v>
+        <v>0.57</v>
       </c>
       <c r="D102">
         <v>2743343.282</v>
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="B103">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C103">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="D103">
         <v>2743342.309</v>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="B104">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C104">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D104">
         <v>2743350.691</v>
@@ -7048,10 +7048,10 @@
         </is>
       </c>
       <c r="B105">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D105">
         <v>2743349.449</v>
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="B106">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C106">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D106">
         <v>2743347.875</v>
@@ -7176,10 +7176,10 @@
         </is>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C107">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D107">
         <v>2743380.451</v>
@@ -7240,10 +7240,10 @@
         </is>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C108">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D108">
         <v>2743380.779</v>
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B109">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C109">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D109">
         <v>2743380.264</v>
@@ -7368,10 +7368,10 @@
         </is>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C110">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="D110">
         <v>2734155.885</v>
@@ -7432,10 +7432,10 @@
         </is>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C111">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D111">
         <v>2734160.239</v>
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B112">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C112">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="D112">
         <v>2734164.721</v>
@@ -7560,10 +7560,10 @@
         </is>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D113">
         <v>2734187.861</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B114">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C114">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D114">
         <v>2734194.159</v>
@@ -7688,10 +7688,10 @@
         </is>
       </c>
       <c r="B115">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C115">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="D115">
         <v>2734197.665</v>
@@ -7752,10 +7752,10 @@
         </is>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D116">
         <v>2734202.938</v>
@@ -7816,10 +7816,10 @@
         </is>
       </c>
       <c r="B117">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C117">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D117">
         <v>2734208.986</v>
@@ -7880,10 +7880,10 @@
         </is>
       </c>
       <c r="B118">
-        <v>94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C118">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="D118">
         <v>2734215.143</v>
@@ -7944,10 +7944,10 @@
         </is>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C119">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D119">
         <v>2734224.145</v>
@@ -8008,10 +8008,10 @@
         </is>
       </c>
       <c r="B120">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C120">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D120">
         <v>2734231.618</v>
@@ -8072,10 +8072,10 @@
         </is>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C121">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D121">
         <v>2734235.725</v>
@@ -8136,10 +8136,10 @@
         </is>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D122">
         <v>2576387.499</v>
@@ -8200,10 +8200,10 @@
         </is>
       </c>
       <c r="B123">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="C123">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D123">
         <v>2576389.998</v>
@@ -8264,10 +8264,10 @@
         </is>
       </c>
       <c r="B124">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C124">
-        <v>46</v>
+        <v>0.46</v>
       </c>
       <c r="D124">
         <v>2576391.39</v>
@@ -8328,10 +8328,10 @@
         </is>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D125">
         <v>2576354.563</v>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="B126">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="C126">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D126">
         <v>2576357.847</v>
@@ -8456,10 +8456,10 @@
         </is>
       </c>
       <c r="B127">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C127">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="D127">
         <v>2576359.485</v>
@@ -8520,10 +8520,10 @@
         </is>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D128">
         <v>2576331.741</v>
@@ -8584,10 +8584,10 @@
         </is>
       </c>
       <c r="B129">
-        <v>109</v>
+        <v>1.09</v>
       </c>
       <c r="C129">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D129">
         <v>2576333.64</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="B130">
-        <v>102</v>
+        <v>1.02</v>
       </c>
       <c r="C130">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D130">
         <v>2576335.269</v>
@@ -8712,10 +8712,10 @@
         </is>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D131">
         <v>2576316.104</v>
@@ -8776,10 +8776,10 @@
         </is>
       </c>
       <c r="B132">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C132">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D132">
         <v>2576317.881</v>
@@ -8840,10 +8840,10 @@
         </is>
       </c>
       <c r="B133">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C133">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D133">
         <v>2576319.414</v>
@@ -8904,10 +8904,10 @@
         </is>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C134">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="D134">
         <v>2575586.286</v>
@@ -8968,10 +8968,10 @@
         </is>
       </c>
       <c r="B135">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C135">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D135">
         <v>2575582.185</v>
@@ -9032,10 +9032,10 @@
         </is>
       </c>
       <c r="B136">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D136">
         <v>2575578.339</v>
@@ -9096,10 +9096,10 @@
         </is>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="C137">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D137">
         <v>2575585.106</v>
@@ -9160,10 +9160,10 @@
         </is>
       </c>
       <c r="B138">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>0.29</v>
       </c>
       <c r="D138">
         <v>2575580.608</v>
@@ -9224,10 +9224,10 @@
         </is>
       </c>
       <c r="B139">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C139">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D139">
         <v>2575576.93</v>
@@ -9288,10 +9288,10 @@
         </is>
       </c>
       <c r="B140">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="D140">
         <v>2575584.319</v>
@@ -9352,10 +9352,10 @@
         </is>
       </c>
       <c r="B141">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C141">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D141">
         <v>2575579.283</v>
@@ -9416,10 +9416,10 @@
         </is>
       </c>
       <c r="B142">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C142">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D142">
         <v>2575575.53</v>
@@ -9480,10 +9480,10 @@
         </is>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D143">
         <v>2575595.907</v>
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="B144">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C144">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D144">
         <v>2575589.22</v>
@@ -9608,10 +9608,10 @@
         </is>
       </c>
       <c r="B145">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C145">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D145">
         <v>2575583.262</v>
@@ -9672,10 +9672,10 @@
         </is>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D146">
         <v>2579336.846</v>
@@ -9736,10 +9736,10 @@
         </is>
       </c>
       <c r="B147">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C147">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D147">
         <v>2579340.226</v>
@@ -9800,10 +9800,10 @@
         </is>
       </c>
       <c r="B148">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C148">
-        <v>56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D148">
         <v>2579342.199</v>
@@ -9864,10 +9864,10 @@
         </is>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D149">
         <v>2579351.752</v>
@@ -9928,10 +9928,10 @@
         </is>
       </c>
       <c r="B150">
-        <v>57</v>
+        <v>0.57</v>
       </c>
       <c r="C150">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D150">
         <v>2579354.745</v>
@@ -9992,10 +9992,10 @@
         </is>
       </c>
       <c r="B151">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C151">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="D151">
         <v>2579360.786</v>
@@ -10056,10 +10056,10 @@
         </is>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D152">
         <v>2579367.687</v>
@@ -10120,10 +10120,10 @@
         </is>
       </c>
       <c r="B153">
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="C153">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D153">
         <v>2579371.137</v>
@@ -10184,10 +10184,10 @@
         </is>
       </c>
       <c r="B154">
-        <v>122</v>
+        <v>1.22</v>
       </c>
       <c r="C154">
-        <v>56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D154">
         <v>2579372.832</v>
@@ -10248,10 +10248,10 @@
         </is>
       </c>
       <c r="B155">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D155">
         <v>2579383.987</v>
@@ -10312,10 +10312,10 @@
         </is>
       </c>
       <c r="B156">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C156">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D156">
         <v>2579388.171</v>
@@ -10376,10 +10376,10 @@
         </is>
       </c>
       <c r="B157">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C157">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="D157">
         <v>2579391.292</v>
@@ -10440,10 +10440,10 @@
         </is>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D158">
         <v>2584537.727</v>
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="B159">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C159">
-        <v>29</v>
+        <v>0.29</v>
       </c>
       <c r="D159">
         <v>2584530.12</v>
@@ -10568,10 +10568,10 @@
         </is>
       </c>
       <c r="B160">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C160">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="D160">
         <v>2584524.207</v>
@@ -10632,10 +10632,10 @@
         </is>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D161">
         <v>2584513.192</v>
@@ -10696,10 +10696,10 @@
         </is>
       </c>
       <c r="B162">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C162">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D162">
         <v>2584504.443</v>
@@ -10760,10 +10760,10 @@
         </is>
       </c>
       <c r="B163">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="C163">
-        <v>88</v>
+        <v>0.88</v>
       </c>
       <c r="D163">
         <v>2584500.077</v>
@@ -10824,10 +10824,10 @@
         </is>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D164">
         <v>2584473.553</v>
@@ -10888,10 +10888,10 @@
         </is>
       </c>
       <c r="B165">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="C165">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D165">
         <v>2584461.481</v>
@@ -10952,10 +10952,10 @@
         </is>
       </c>
       <c r="B166">
-        <v>117</v>
+        <v>1.17</v>
       </c>
       <c r="C166">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="D166">
         <v>2584454.101</v>
@@ -11016,10 +11016,10 @@
         </is>
       </c>
       <c r="B167">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="C167">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="D167">
         <v>2584458.622</v>
@@ -11080,10 +11080,10 @@
         </is>
       </c>
       <c r="B168">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C168">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D168">
         <v>2584449.091</v>
@@ -11144,10 +11144,10 @@
         </is>
       </c>
       <c r="B169">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C169">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="D169">
         <v>2584440.652</v>
@@ -11208,10 +11208,10 @@
         </is>
       </c>
       <c r="B170">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C170">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D170">
         <v>2768906.248</v>
@@ -11272,10 +11272,10 @@
         </is>
       </c>
       <c r="B171">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="C171">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D171">
         <v>2768905.497</v>
@@ -11336,10 +11336,10 @@
         </is>
       </c>
       <c r="B172">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C172">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D172">
         <v>2768905.85</v>
@@ -11400,10 +11400,10 @@
         </is>
       </c>
       <c r="B173">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C173">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D173">
         <v>2768943.691</v>
@@ -11464,10 +11464,10 @@
         </is>
       </c>
       <c r="B174">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C174">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D174">
         <v>2768943.608</v>
@@ -11528,10 +11528,10 @@
         </is>
       </c>
       <c r="B175">
-        <v>78</v>
+        <v>0.78</v>
       </c>
       <c r="C175">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D175">
         <v>2768943.348</v>
@@ -11592,10 +11592,10 @@
         </is>
       </c>
       <c r="B176">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C176">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D176">
         <v>2769001.048</v>
@@ -11656,10 +11656,10 @@
         </is>
       </c>
       <c r="B177">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C177">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D177">
         <v>2769000.714</v>
@@ -11720,10 +11720,10 @@
         </is>
       </c>
       <c r="B178">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="C178">
-        <v>57</v>
+        <v>0.57</v>
       </c>
       <c r="D178">
         <v>2768999.514</v>
@@ -11784,10 +11784,10 @@
         </is>
       </c>
       <c r="B179">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C179">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D179">
         <v>2769032.368</v>
@@ -11848,10 +11848,10 @@
         </is>
       </c>
       <c r="B180">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C180">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D180">
         <v>2769032.741</v>
@@ -11912,10 +11912,10 @@
         </is>
       </c>
       <c r="B181">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C181">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D181">
         <v>2769032.84</v>
@@ -11976,10 +11976,10 @@
         </is>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C182">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D182">
         <v>2779182.3</v>
@@ -12040,10 +12040,10 @@
         </is>
       </c>
       <c r="B183">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C183">
-        <v>56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D183">
         <v>2779181.994</v>
@@ -12104,10 +12104,10 @@
         </is>
       </c>
       <c r="B184">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C184">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="D184">
         <v>2779182.708</v>
@@ -12168,10 +12168,10 @@
         </is>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C185">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D185">
         <v>2779193.191</v>
@@ -12232,10 +12232,10 @@
         </is>
       </c>
       <c r="B186">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C186">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="D186">
         <v>2779193.201</v>
@@ -12296,10 +12296,10 @@
         </is>
       </c>
       <c r="B187">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="C187">
-        <v>103</v>
+        <v>1.03</v>
       </c>
       <c r="D187">
         <v>2779193.912</v>
@@ -12360,10 +12360,10 @@
         </is>
       </c>
       <c r="B188">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C188">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D188">
         <v>2779242.354</v>
@@ -12424,10 +12424,10 @@
         </is>
       </c>
       <c r="B189">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="C189">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D189">
         <v>2779244.929</v>
@@ -12488,10 +12488,10 @@
         </is>
       </c>
       <c r="B190">
-        <v>96</v>
+        <v>0.96</v>
       </c>
       <c r="C190">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="D190">
         <v>2779245.431</v>
@@ -12552,10 +12552,10 @@
         </is>
       </c>
       <c r="B191">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="C191">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="D191">
         <v>2779255.123</v>
@@ -12616,10 +12616,10 @@
         </is>
       </c>
       <c r="B192">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C192">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D192">
         <v>2779257.195</v>
@@ -12680,10 +12680,10 @@
         </is>
       </c>
       <c r="B193">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="C193">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="D193">
         <v>2779257.728</v>
@@ -12744,10 +12744,10 @@
         </is>
       </c>
       <c r="B194">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C194">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D194">
         <v>2777147.747</v>
@@ -12808,10 +12808,10 @@
         </is>
       </c>
       <c r="B195">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="C195">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D195">
         <v>2777148.101</v>
@@ -12872,10 +12872,10 @@
         </is>
       </c>
       <c r="B196">
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="C196">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="D196">
         <v>2777149.204</v>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C197">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D197">
         <v>2777156.023</v>
@@ -13000,10 +13000,10 @@
         </is>
       </c>
       <c r="B198">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C198">
-        <v>71</v>
+        <v>0.71</v>
       </c>
       <c r="D198">
         <v>2777154.81</v>
@@ -13064,10 +13064,10 @@
         </is>
       </c>
       <c r="B199">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C199">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="D199">
         <v>2777154.859</v>
@@ -13128,10 +13128,10 @@
         </is>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C200">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D200">
         <v>2777279.658</v>
@@ -13192,10 +13192,10 @@
         </is>
       </c>
       <c r="B201">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C201">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D201">
         <v>2777281.145</v>
@@ -13256,10 +13256,10 @@
         </is>
       </c>
       <c r="B202">
-        <v>124</v>
+        <v>1.24</v>
       </c>
       <c r="C202">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D202">
         <v>2777282.005</v>
@@ -13320,10 +13320,10 @@
         </is>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C203">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D203">
         <v>2777292.361</v>
@@ -13384,10 +13384,10 @@
         </is>
       </c>
       <c r="B204">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C204">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="D204">
         <v>2777292.592</v>
@@ -13448,10 +13448,10 @@
         </is>
       </c>
       <c r="B205">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C205">
-        <v>56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D205">
         <v>2777294.528</v>
@@ -13512,10 +13512,10 @@
         </is>
       </c>
       <c r="B206">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C206">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D206">
         <v>2773062.092</v>
@@ -13576,10 +13576,10 @@
         </is>
       </c>
       <c r="B207">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C207">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D207">
         <v>2773060.541</v>
@@ -13640,10 +13640,10 @@
         </is>
       </c>
       <c r="B208">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C208">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D208">
         <v>2773058.967</v>
@@ -13704,10 +13704,10 @@
         </is>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C209">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D209">
         <v>2773064.408</v>
@@ -13768,10 +13768,10 @@
         </is>
       </c>
       <c r="B210">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C210">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D210">
         <v>2773063.811</v>
@@ -13832,10 +13832,10 @@
         </is>
       </c>
       <c r="B211">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="C211">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D211">
         <v>2773063.333</v>
@@ -13896,10 +13896,10 @@
         </is>
       </c>
       <c r="B212">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C212">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="D212">
         <v>2773068.977</v>
@@ -13960,10 +13960,10 @@
         </is>
       </c>
       <c r="B213">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C213">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D213">
         <v>2773068.303</v>
@@ -14024,10 +14024,10 @@
         </is>
       </c>
       <c r="B214">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D214">
         <v>2773066.053</v>
@@ -14088,10 +14088,10 @@
         </is>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C215">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D215">
         <v>2773072.626</v>
@@ -14152,10 +14152,10 @@
         </is>
       </c>
       <c r="B216">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C216">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D216">
         <v>2773071.878</v>
@@ -14216,10 +14216,10 @@
         </is>
       </c>
       <c r="B217">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C217">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D217">
         <v>2773071.054</v>
@@ -14280,10 +14280,10 @@
         </is>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C218">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D218">
         <v>2773014.557</v>
@@ -14344,10 +14344,10 @@
         </is>
       </c>
       <c r="B219">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C219">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D219">
         <v>2773012.586</v>
@@ -14408,10 +14408,10 @@
         </is>
       </c>
       <c r="B220">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C220">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="D220">
         <v>2773011.689</v>
@@ -14472,10 +14472,10 @@
         </is>
       </c>
       <c r="B221">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C221">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D221">
         <v>2773017.035</v>
@@ -14536,10 +14536,10 @@
         </is>
       </c>
       <c r="B222">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C222">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D222">
         <v>2773016.202</v>
@@ -14600,10 +14600,10 @@
         </is>
       </c>
       <c r="B223">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C223">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D223">
         <v>2773015.04</v>
@@ -14664,10 +14664,10 @@
         </is>
       </c>
       <c r="B224">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="C224">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D224">
         <v>2773022.819</v>
@@ -14728,10 +14728,10 @@
         </is>
       </c>
       <c r="B225">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C225">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D225">
         <v>2773021.465</v>
@@ -14792,10 +14792,10 @@
         </is>
       </c>
       <c r="B226">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C226">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D226">
         <v>2773019.962</v>
@@ -14856,10 +14856,10 @@
         </is>
       </c>
       <c r="B227">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="C227">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D227">
         <v>2773034.839</v>
@@ -14920,10 +14920,10 @@
         </is>
       </c>
       <c r="B228">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C228">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D228">
         <v>2773034.254</v>
@@ -14984,10 +14984,10 @@
         </is>
       </c>
       <c r="B229">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C229">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D229">
         <v>2773032.65</v>
@@ -15048,10 +15048,10 @@
         </is>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C230">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D230">
         <v>2746361.002</v>
@@ -15112,10 +15112,10 @@
         </is>
       </c>
       <c r="B231">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C231">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="D231">
         <v>2746367.015</v>
@@ -15176,10 +15176,10 @@
         </is>
       </c>
       <c r="B232">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="C232">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="D232">
         <v>2746372.339</v>
@@ -15240,10 +15240,10 @@
         </is>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="C233">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D233">
         <v>2746263.522</v>
@@ -15304,10 +15304,10 @@
         </is>
       </c>
       <c r="B234">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C234">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="D234">
         <v>2746264.819</v>
@@ -15368,10 +15368,10 @@
         </is>
       </c>
       <c r="B235">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="C235">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="D235">
         <v>2746265.921</v>
@@ -15432,10 +15432,10 @@
         </is>
       </c>
       <c r="B236">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C236">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D236">
         <v>2746178.854</v>
@@ -15496,10 +15496,10 @@
         </is>
       </c>
       <c r="B237">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="C237">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D237">
         <v>2746178.552</v>
@@ -15560,10 +15560,10 @@
         </is>
       </c>
       <c r="B238">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="C238">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="D238">
         <v>2746178.843</v>
@@ -15624,10 +15624,10 @@
         </is>
       </c>
       <c r="B239">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C239">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D239">
         <v>2746128.403</v>
@@ -15688,10 +15688,10 @@
         </is>
       </c>
       <c r="B240">
-        <v>103</v>
+        <v>1.03</v>
       </c>
       <c r="C240">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D240">
         <v>2746126.101</v>
@@ -15752,10 +15752,10 @@
         </is>
       </c>
       <c r="B241">
-        <v>152</v>
+        <v>1.52</v>
       </c>
       <c r="C241">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="D241">
         <v>2746123.583</v>
@@ -15816,10 +15816,10 @@
         </is>
       </c>
       <c r="B242">
-        <v>29</v>
+        <v>0.29</v>
       </c>
       <c r="C242">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D242">
         <v>2737473.074</v>
@@ -15880,10 +15880,10 @@
         </is>
       </c>
       <c r="B243">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="C243">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D243">
         <v>2737471.948</v>
@@ -15944,10 +15944,10 @@
         </is>
       </c>
       <c r="B244">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C244">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D244">
         <v>2737470.146</v>
@@ -16008,10 +16008,10 @@
         </is>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C245">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D245">
         <v>2737486.904</v>
@@ -16072,10 +16072,10 @@
         </is>
       </c>
       <c r="B246">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C246">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D246">
         <v>2737486.324</v>
@@ -16136,10 +16136,10 @@
         </is>
       </c>
       <c r="B247">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C247">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="D247">
         <v>2737485.114</v>
@@ -16200,10 +16200,10 @@
         </is>
       </c>
       <c r="B248">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="C248">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D248">
         <v>2737514.831</v>
@@ -16264,10 +16264,10 @@
         </is>
       </c>
       <c r="B249">
-        <v>104</v>
+        <v>1.04</v>
       </c>
       <c r="C249">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D249">
         <v>2737514.786</v>
@@ -16328,10 +16328,10 @@
         </is>
       </c>
       <c r="B250">
-        <v>163</v>
+        <v>1.63</v>
       </c>
       <c r="C250">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="D250">
         <v>2737514.604</v>
@@ -16392,10 +16392,10 @@
         </is>
       </c>
       <c r="B251">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C251">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="D251">
         <v>2737557.603</v>
@@ -16456,10 +16456,10 @@
         </is>
       </c>
       <c r="B252">
-        <v>98</v>
+        <v>0.98</v>
       </c>
       <c r="C252">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D252">
         <v>2737558.256</v>
@@ -16520,10 +16520,10 @@
         </is>
       </c>
       <c r="B253">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="D253">
         <v>2737557.385</v>
@@ -16584,10 +16584,10 @@
         </is>
       </c>
       <c r="B254">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C254">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D254">
         <v>2724032.757</v>
@@ -16648,10 +16648,10 @@
         </is>
       </c>
       <c r="B255">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C255">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="D255">
         <v>2724031.554</v>
@@ -16712,10 +16712,10 @@
         </is>
       </c>
       <c r="B256">
-        <v>105</v>
+        <v>1.05</v>
       </c>
       <c r="C256">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D256">
         <v>2724030.937</v>
@@ -16776,10 +16776,10 @@
         </is>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C257">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="D257">
         <v>2724021.807</v>
@@ -16840,10 +16840,10 @@
         </is>
       </c>
       <c r="B258">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C258">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D258">
         <v>2724020.474</v>
@@ -16904,10 +16904,10 @@
         </is>
       </c>
       <c r="B259">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C259">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D259">
         <v>2724019.255</v>
@@ -16968,10 +16968,10 @@
         </is>
       </c>
       <c r="B260">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C260">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="D260">
         <v>2724005.212</v>
@@ -17032,10 +17032,10 @@
         </is>
       </c>
       <c r="B261">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C261">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D261">
         <v>2724008.182</v>
@@ -17096,10 +17096,10 @@
         </is>
       </c>
       <c r="B262">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C262">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D262">
         <v>2724013.766</v>
@@ -17160,10 +17160,10 @@
         </is>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C263">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="D263">
         <v>2723959.961</v>
@@ -17224,10 +17224,10 @@
         </is>
       </c>
       <c r="B264">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="C264">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D264">
         <v>2723967.743</v>
@@ -17288,10 +17288,10 @@
         </is>
       </c>
       <c r="B265">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="C265">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D265">
         <v>2723976.307</v>
@@ -17352,10 +17352,10 @@
         </is>
       </c>
       <c r="B266">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C266">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D266">
         <v>2735248.432</v>
@@ -17416,10 +17416,10 @@
         </is>
       </c>
       <c r="B267">
-        <v>115</v>
+        <v>1.15</v>
       </c>
       <c r="C267">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D267">
         <v>2735246.433</v>
@@ -17480,10 +17480,10 @@
         </is>
       </c>
       <c r="B268">
-        <v>102</v>
+        <v>1.02</v>
       </c>
       <c r="C268">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D268">
         <v>2735243.729</v>
@@ -17544,10 +17544,10 @@
         </is>
       </c>
       <c r="B269">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="C269">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D269">
         <v>2735262.993</v>
@@ -17608,10 +17608,10 @@
         </is>
       </c>
       <c r="B270">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C270">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D270">
         <v>2735260.913</v>
@@ -17672,10 +17672,10 @@
         </is>
       </c>
       <c r="B271">
-        <v>131</v>
+        <v>1.31</v>
       </c>
       <c r="C271">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D271">
         <v>2735258.67</v>
@@ -17736,10 +17736,10 @@
         </is>
       </c>
       <c r="B272">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C272">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D272">
         <v>2735319.698</v>
@@ -17800,10 +17800,10 @@
         </is>
       </c>
       <c r="B273">
-        <v>220</v>
+        <v>2.2</v>
       </c>
       <c r="C273">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D273">
         <v>2735317.244</v>
@@ -17864,10 +17864,10 @@
         </is>
       </c>
       <c r="B274">
-        <v>172</v>
+        <v>1.72</v>
       </c>
       <c r="C274">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="D274">
         <v>2735316.334</v>
@@ -17928,10 +17928,10 @@
         </is>
       </c>
       <c r="B275">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C275">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D275">
         <v>2735341.645</v>
@@ -17992,10 +17992,10 @@
         </is>
       </c>
       <c r="B276">
-        <v>118</v>
+        <v>1.18</v>
       </c>
       <c r="C276">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D276">
         <v>2735336.819</v>
@@ -18056,10 +18056,10 @@
         </is>
       </c>
       <c r="B277">
-        <v>108</v>
+        <v>1.08</v>
       </c>
       <c r="C277">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="D277">
         <v>2735334.931</v>
@@ -18120,10 +18120,10 @@
         </is>
       </c>
       <c r="B278">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="C278">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="D278">
         <v>2735745.309</v>
@@ -18184,10 +18184,10 @@
         </is>
       </c>
       <c r="B279">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C279">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D279">
         <v>2735746.741</v>
@@ -18248,10 +18248,10 @@
         </is>
       </c>
       <c r="B280">
-        <v>125</v>
+        <v>1.25</v>
       </c>
       <c r="C280">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="D280">
         <v>2735749.743</v>
@@ -18312,10 +18312,10 @@
         </is>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C281">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D281">
         <v>2735754.012</v>
@@ -18376,10 +18376,10 @@
         </is>
       </c>
       <c r="B282">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C282">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D282">
         <v>2735755.207</v>
@@ -18440,10 +18440,10 @@
         </is>
       </c>
       <c r="B283">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C283">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="D283">
         <v>2735757.467</v>
@@ -18504,10 +18504,10 @@
         </is>
       </c>
       <c r="B284">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C284">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D284">
         <v>2735773.042</v>
@@ -18568,10 +18568,10 @@
         </is>
       </c>
       <c r="B285">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="C285">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D285">
         <v>2735774.299</v>
@@ -18632,10 +18632,10 @@
         </is>
       </c>
       <c r="B286">
-        <v>133</v>
+        <v>1.33</v>
       </c>
       <c r="C286">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D286">
         <v>2735776.987</v>
@@ -18696,10 +18696,10 @@
         </is>
       </c>
       <c r="B287">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C287">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D287">
         <v>2735805.85</v>
@@ -18760,10 +18760,10 @@
         </is>
       </c>
       <c r="B288">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="C288">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D288">
         <v>2735802.55</v>
@@ -18824,10 +18824,10 @@
         </is>
       </c>
       <c r="B289">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C289">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D289">
         <v>2735800.157</v>
@@ -18888,10 +18888,10 @@
         </is>
       </c>
       <c r="B290">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C290">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="D290">
         <v>2728888.154</v>
@@ -18952,10 +18952,10 @@
         </is>
       </c>
       <c r="B291">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C291">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="D291">
         <v>2728890.032</v>
@@ -19016,10 +19016,10 @@
         </is>
       </c>
       <c r="B292">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C292">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="D292">
         <v>2728892.753</v>
@@ -19080,10 +19080,10 @@
         </is>
       </c>
       <c r="B293">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C293">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D293">
         <v>2728883.182</v>
@@ -19144,10 +19144,10 @@
         </is>
       </c>
       <c r="B294">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C294">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D294">
         <v>2728884.638</v>
@@ -19208,10 +19208,10 @@
         </is>
       </c>
       <c r="B295">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C295">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D295">
         <v>2728885.663</v>
@@ -19272,10 +19272,10 @@
         </is>
       </c>
       <c r="B296">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C296">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="D296">
         <v>2728759.408</v>
@@ -19336,10 +19336,10 @@
         </is>
       </c>
       <c r="B297">
-        <v>158</v>
+        <v>1.58</v>
       </c>
       <c r="C297">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D297">
         <v>2728760.321</v>
@@ -19400,10 +19400,10 @@
         </is>
       </c>
       <c r="B298">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="C298">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="D298">
         <v>2728761.36</v>
@@ -19464,10 +19464,10 @@
         </is>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C299">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D299">
         <v>2728750.883</v>
@@ -19528,10 +19528,10 @@
         </is>
       </c>
       <c r="B300">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C300">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D300">
         <v>2728752.901</v>
@@ -19592,10 +19592,10 @@
         </is>
       </c>
       <c r="B301">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C301">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D301">
         <v>2728753.806</v>

--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_sampling.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_sampling.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R301"/>
+  <dimension ref="A1:U301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,21 @@
           <t>rel_abundance</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>clog_3_class_int</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>clog_6_class_int</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>sub_type_int</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,6 +527,15 @@
       <c r="R2">
         <v>0.0674674163046256</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -576,6 +600,15 @@
       <c r="R3">
         <v>0.192435471505239</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -640,6 +673,15 @@
       <c r="R4">
         <v>0.1765908510094557</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,6 +746,15 @@
       <c r="R5">
         <v>0.1551239458216202</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -768,6 +819,15 @@
       <c r="R6">
         <v>0.5351392793253258</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -832,6 +892,15 @@
       <c r="R7">
         <v>0.3810375670840787</v>
       </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -896,6 +965,15 @@
       <c r="R8">
         <v>0.1673907487860976</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -960,6 +1038,15 @@
       <c r="R9">
         <v>0.4561717352415027</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1024,6 +1111,15 @@
       <c r="R10">
         <v>0.6636851520572451</v>
       </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1088,6 +1184,15 @@
       <c r="R11">
         <v>0.2323025811397904</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1152,6 +1257,15 @@
       <c r="R12">
         <v>0.1827242524916944</v>
       </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1216,6 +1330,15 @@
       <c r="R13">
         <v>0.6506516739074879</v>
       </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1280,6 +1403,15 @@
       <c r="R14">
         <v>0.9044211602351138</v>
       </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1344,6 +1476,15 @@
       <c r="R15">
         <v>0.4589828775875288</v>
       </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1408,6 +1549,15 @@
       <c r="R16">
         <v>0.4290825453616151</v>
       </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1472,6 +1622,15 @@
       <c r="R17">
         <v>0.2760030667007411</v>
       </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1536,6 +1695,15 @@
       <c r="R18">
         <v>0.1270125223613596</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1600,6 +1768,15 @@
       <c r="R19">
         <v>0.1740352670585229</v>
       </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1664,6 +1841,15 @@
       <c r="R20">
         <v>0.2956810631229236</v>
       </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1728,6 +1914,15 @@
       <c r="R21">
         <v>0.3411704574495272</v>
       </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1792,6 +1987,15 @@
       <c r="R22">
         <v>0.4840276003066701</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1856,6 +2060,15 @@
       <c r="R23">
         <v>0.1426015844620496</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1920,6 +2133,15 @@
       <c r="R24">
         <v>0.3064145157168413</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1984,6 +2206,15 @@
       <c r="R25">
         <v>0.3442371581906465</v>
       </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2048,6 +2279,15 @@
       <c r="R26">
         <v>0.1556350626118068</v>
       </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2112,6 +2352,15 @@
       <c r="R27">
         <v>0.1627906976744186</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2176,6 +2425,15 @@
       <c r="R28">
         <v>0.2141579350881676</v>
       </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2240,6 +2498,15 @@
       <c r="R29">
         <v>0.07053411704574496</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2304,6 +2571,15 @@
       <c r="R30">
         <v>0.2415026833631485</v>
       </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2368,6 +2644,15 @@
       <c r="R31">
         <v>0.3444927165857398</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2432,6 +2717,15 @@
       <c r="R32">
         <v>0.1533350370559673</v>
       </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2496,6 +2790,15 @@
       <c r="R33">
         <v>0.2877587528750319</v>
       </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2560,6 +2863,15 @@
       <c r="R34">
         <v>0.08791208791208792</v>
       </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2624,6 +2936,15 @@
       <c r="R35">
         <v>0.2558139534883721</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2688,6 +3009,15 @@
       <c r="R36">
         <v>0.2798364426271403</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2752,6 +3082,15 @@
       <c r="R37">
         <v>0.1788908765652952</v>
       </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2816,6 +3155,15 @@
       <c r="R38">
         <v>0.2747252747252747</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2880,6 +3228,15 @@
       <c r="R39">
         <v>0.217224635829287</v>
       </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2944,6 +3301,15 @@
       <c r="R40">
         <v>0.223613595706619</v>
       </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3008,6 +3374,15 @@
       <c r="R41">
         <v>0.2844364937388193</v>
       </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3072,6 +3447,15 @@
       <c r="R42">
         <v>0.08663429593662152</v>
       </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3136,6 +3520,15 @@
       <c r="R43">
         <v>0.09736774853053923</v>
       </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3200,6 +3593,15 @@
       <c r="R44">
         <v>0.1817020189113212</v>
       </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3264,6 +3666,15 @@
       <c r="R45">
         <v>0.03731152568361871</v>
       </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3328,6 +3739,15 @@
       <c r="R46">
         <v>0.09813442371581907</v>
       </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3392,6 +3812,15 @@
       <c r="R47">
         <v>0.120112445693841</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3456,6 +3885,15 @@
       <c r="R48">
         <v>0.09021211346792742</v>
       </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3520,6 +3958,15 @@
       <c r="R49">
         <v>0.07027855865065168</v>
       </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3584,6 +4031,15 @@
       <c r="R50">
         <v>0.08561206235624841</v>
       </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3648,6 +4104,15 @@
       <c r="R51">
         <v>0.1101456682852032</v>
       </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3712,6 +4177,15 @@
       <c r="R52">
         <v>0.0626118067978533</v>
       </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3776,6 +4250,15 @@
       <c r="R53">
         <v>0.1119345770508561</v>
       </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3840,6 +4323,15 @@
       <c r="R54">
         <v>0.05111167901865576</v>
       </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3904,6 +4396,15 @@
       <c r="R55">
         <v>0.06670074111934578</v>
       </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3968,6 +4469,15 @@
       <c r="R56">
         <v>0.04753386148734986</v>
       </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4032,6 +4542,15 @@
       <c r="R57">
         <v>0.1019677996422182</v>
       </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4096,6 +4615,15 @@
       <c r="R58">
         <v>0.03475594173268592</v>
       </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4160,6 +4688,15 @@
       <c r="R59">
         <v>0.09481216457960644</v>
       </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4224,6 +4761,15 @@
       <c r="R60">
         <v>0.06210069000766675</v>
       </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4288,6 +4834,15 @@
       <c r="R61">
         <v>0.01558906210069001</v>
       </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4352,6 +4907,15 @@
       <c r="R62">
         <v>0.1857909532328137</v>
       </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4416,6 +4980,15 @@
       <c r="R63">
         <v>0.05724508050089445</v>
       </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4480,6 +5053,15 @@
       <c r="R64">
         <v>0.01431127012522361</v>
       </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4544,6 +5126,15 @@
       <c r="R65">
         <v>0.1377459749552773</v>
       </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4608,6 +5199,15 @@
       <c r="R66">
         <v>0.03475594173268592</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4672,6 +5272,15 @@
       <c r="R67">
         <v>0.02300025555839509</v>
       </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4736,6 +5345,15 @@
       <c r="R68">
         <v>0.184257602862254</v>
       </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4800,6 +5418,15 @@
       <c r="R69">
         <v>0.03066700741119346</v>
       </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4864,6 +5491,15 @@
       <c r="R70">
         <v>0.009966777408637873</v>
       </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4928,6 +5564,15 @@
       <c r="R71">
         <v>0.1075900843342704</v>
       </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4992,6 +5637,15 @@
       <c r="R72">
         <v>0.06848964988499873</v>
       </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5056,6 +5710,15 @@
       <c r="R73">
         <v>0.007155635062611807</v>
       </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5120,6 +5783,15 @@
       <c r="R74">
         <v>0.06618962432915922</v>
       </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5184,6 +5856,15 @@
       <c r="R75">
         <v>0.05571173013033478</v>
       </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5248,6 +5929,15 @@
       <c r="R76">
         <v>0.02708918987988755</v>
       </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5312,6 +6002,15 @@
       <c r="R77">
         <v>0.2141579350881676</v>
       </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5376,6 +6075,15 @@
       <c r="R78">
         <v>0.04267825198057756</v>
       </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5440,6 +6148,15 @@
       <c r="R79">
         <v>0.07513416815742398</v>
       </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5504,6 +6221,15 @@
       <c r="R80">
         <v>0.2775364170713008</v>
       </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5568,6 +6294,15 @@
       <c r="R81">
         <v>0.242013800153335</v>
       </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5632,6 +6367,15 @@
       <c r="R82">
         <v>0.1635573728596984</v>
       </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5696,6 +6440,15 @@
       <c r="R83">
         <v>0.2136468182979811</v>
       </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5760,6 +6513,15 @@
       <c r="R84">
         <v>0.07768975210835675</v>
       </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5824,6 +6586,15 @@
       <c r="R85">
         <v>0.1505238947099412</v>
       </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5888,6 +6659,15 @@
       <c r="R86">
         <v>0.5504727830309226</v>
       </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5952,6 +6732,15 @@
       <c r="R87">
         <v>0.6841298236647074</v>
       </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6016,6 +6805,15 @@
       <c r="R88">
         <v>0.1934577050856121</v>
       </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6080,6 +6878,15 @@
       <c r="R89">
         <v>0.2210580117556862</v>
       </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6144,6 +6951,15 @@
       <c r="R90">
         <v>0.1505238947099412</v>
       </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6208,6 +7024,15 @@
       <c r="R91">
         <v>0.434449271658574</v>
       </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6272,6 +7097,15 @@
       <c r="R92">
         <v>0.2734474827498083</v>
       </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6336,6 +7170,15 @@
       <c r="R93">
         <v>0.9639662662918477</v>
       </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6400,6 +7243,15 @@
       <c r="R94">
         <v>0.3536928188090979</v>
       </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6464,6 +7316,15 @@
       <c r="R95">
         <v>0.8732430360337337</v>
       </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6528,6 +7389,15 @@
       <c r="R96">
         <v>0.3117812420138001</v>
       </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6592,6 +7462,15 @@
       <c r="R97">
         <v>0.2208024533605929</v>
       </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6656,6 +7535,15 @@
       <c r="R98">
         <v>0.09353437260414005</v>
       </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6720,6 +7608,15 @@
       <c r="R99">
         <v>0.0590339892665474</v>
       </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6784,6 +7681,15 @@
       <c r="R100">
         <v>0.05775619729108101</v>
       </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6848,6 +7754,15 @@
       <c r="R101">
         <v>0.09966777408637874</v>
       </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6912,6 +7827,15 @@
       <c r="R102">
         <v>0.05775619729108101</v>
       </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6976,6 +7900,15 @@
       <c r="R103">
         <v>0.06312292358803986</v>
       </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7040,6 +7973,15 @@
       <c r="R104">
         <v>0.2404804497827754</v>
       </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7104,6 +8046,15 @@
       <c r="R105">
         <v>0.3621262458471761</v>
       </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7168,6 +8119,15 @@
       <c r="R106">
         <v>0.7687196524405827</v>
       </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7232,6 +8192,15 @@
       <c r="R107">
         <v>0.2213135701507795</v>
       </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7296,6 +8265,15 @@
       <c r="R108">
         <v>0.6197291081012011</v>
       </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7360,6 +8338,15 @@
       <c r="R109">
         <v>0.2846920521339126</v>
       </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7424,6 +8411,15 @@
       <c r="R110">
         <v>0.2427804753386149</v>
       </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7488,6 +8484,15 @@
       <c r="R111">
         <v>0.1213902376693074</v>
       </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7552,6 +8557,15 @@
       <c r="R112">
         <v>0.09762330692563251</v>
       </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7616,6 +8630,15 @@
       <c r="R113">
         <v>0.09966777408637874</v>
       </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7680,6 +8703,15 @@
       <c r="R114">
         <v>0.08586762075134168</v>
       </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7744,6 +8776,15 @@
       <c r="R115">
         <v>0.1239458216202402</v>
       </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7808,6 +8849,15 @@
       <c r="R116">
         <v>0.1308458982877587</v>
       </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7872,6 +8922,15 @@
       <c r="R117">
         <v>0.1290569895221058</v>
       </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7936,6 +8995,15 @@
       <c r="R118">
         <v>0.31254791719908</v>
       </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8000,6 +9068,15 @@
       <c r="R119">
         <v>0.2162024022489139</v>
       </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8064,6 +9141,15 @@
       <c r="R120">
         <v>0.1886020955788398</v>
       </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8128,6 +9214,15 @@
       <c r="R121">
         <v>0.1768464094045489</v>
       </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8192,6 +9287,15 @@
       <c r="R122">
         <v>0.2731919243547151</v>
       </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8256,6 +9360,15 @@
       <c r="R123">
         <v>0.2576028622540251</v>
       </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8320,6 +9433,15 @@
       <c r="R124">
         <v>0.2021466905187835</v>
       </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8384,6 +9506,15 @@
       <c r="R125">
         <v>0.3179146434960388</v>
       </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8448,6 +9579,15 @@
       <c r="R126">
         <v>0.1597239969332993</v>
       </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8512,6 +9652,15 @@
       <c r="R127">
         <v>0.2292358803986711</v>
       </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8576,6 +9725,15 @@
       <c r="R128">
         <v>0.2024022489138768</v>
       </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8640,6 +9798,15 @@
       <c r="R129">
         <v>0.461027344748275</v>
       </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8704,6 +9871,15 @@
       <c r="R130">
         <v>0.06721185790953232</v>
       </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8768,6 +9944,15 @@
       <c r="R131">
         <v>0.8251980577561973</v>
       </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8832,6 +10017,15 @@
       <c r="R132">
         <v>0.5210835675951955</v>
       </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8896,6 +10090,15 @@
       <c r="R133">
         <v>0.2887809864554051</v>
       </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8960,6 +10163,15 @@
       <c r="R134">
         <v>0.1354459493994378</v>
       </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9024,6 +10236,15 @@
       <c r="R135">
         <v>0.2026578073089701</v>
       </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9088,6 +10309,15 @@
       <c r="R136">
         <v>0.2857142857142857</v>
       </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9152,6 +10382,15 @@
       <c r="R137">
         <v>0.2246358292869921</v>
       </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9216,6 +10455,15 @@
       <c r="R138">
         <v>0.2757475083056478</v>
       </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9280,6 +10528,15 @@
       <c r="R139">
         <v>0.1380015333503705</v>
       </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9344,6 +10601,15 @@
       <c r="R140">
         <v>0.3312036800408893</v>
       </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9408,6 +10674,15 @@
       <c r="R141">
         <v>0.4421160235113724</v>
       </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9472,6 +10747,15 @@
       <c r="R142">
         <v>0.1323792486583184</v>
       </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9536,6 +10820,15 @@
       <c r="R143">
         <v>0.07232302581139791</v>
       </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9600,6 +10893,15 @@
       <c r="R144">
         <v>0.142090467671863</v>
       </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9664,6 +10966,15 @@
       <c r="R145">
         <v>0.3240480449782775</v>
       </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9728,6 +11039,15 @@
       <c r="R146">
         <v>0.615895732174802</v>
       </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9792,6 +11112,15 @@
       <c r="R147">
         <v>0.3005366726296959</v>
       </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9856,6 +11185,15 @@
       <c r="R148">
         <v>0.3355481727574751</v>
       </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9920,6 +11258,15 @@
       <c r="R149">
         <v>0.521594684385382</v>
       </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9984,6 +11331,15 @@
       <c r="R150">
         <v>0.3225146946077179</v>
       </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10048,6 +11404,15 @@
       <c r="R151">
         <v>0.1967799642218247</v>
       </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10112,6 +11477,15 @@
       <c r="R152">
         <v>0.5686174290825453</v>
       </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10176,6 +11550,15 @@
       <c r="R153">
         <v>0.7114745719396882</v>
       </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10240,6 +11623,15 @@
       <c r="R154">
         <v>0.3033478149757219</v>
       </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10304,6 +11696,15 @@
       <c r="R155">
         <v>0.6606184513161257</v>
       </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10368,6 +11769,15 @@
       <c r="R156">
         <v>0.3340148223869154</v>
       </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10432,6 +11842,15 @@
       <c r="R157">
         <v>0.4076156401737797</v>
       </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10496,6 +11915,15 @@
       <c r="R158">
         <v>0.2001022233580373</v>
       </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10560,6 +11988,15 @@
       <c r="R159">
         <v>0.2417582417582418</v>
       </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10624,6 +12061,15 @@
       <c r="R160">
         <v>0.01916687963199591</v>
       </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>2</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10688,6 +12134,15 @@
       <c r="R161">
         <v>0.6192179913110145</v>
       </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10752,6 +12207,15 @@
       <c r="R162">
         <v>0.05980066445182725</v>
       </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10816,6 +12280,15 @@
       <c r="R163">
         <v>0.1037567084078712</v>
       </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10880,6 +12353,15 @@
       <c r="R164">
         <v>0.2632251469460772</v>
       </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10944,6 +12426,15 @@
       <c r="R165">
         <v>0.07768975210835675</v>
       </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11008,6 +12499,15 @@
       <c r="R166">
         <v>0.1500127779197547</v>
       </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>2</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11072,6 +12572,15 @@
       <c r="R167">
         <v>1</v>
       </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11136,6 +12645,15 @@
       <c r="R168">
         <v>0.0506005622284692</v>
       </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11200,6 +12718,15 @@
       <c r="R169">
         <v>0.08510094556606185</v>
       </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11264,6 +12791,15 @@
       <c r="R170">
         <v>0.0664451827242525</v>
       </c>
+      <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>5</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11328,6 +12864,15 @@
       <c r="R171">
         <v>0.0132890365448505</v>
       </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>5</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11392,6 +12937,15 @@
       <c r="R172">
         <v>0.01763352926143624</v>
       </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>5</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11456,6 +13010,15 @@
       <c r="R173">
         <v>0.01916687963199591</v>
       </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
+        <v>5</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11520,6 +13083,15 @@
       <c r="R174">
         <v>0.01916687963199591</v>
       </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>5</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11584,6 +13156,15 @@
       <c r="R175">
         <v>0.02121134679274214</v>
       </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>5</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11648,6 +13229,15 @@
       <c r="R176">
         <v>0.04574495272169691</v>
       </c>
+      <c r="S176">
+        <v>2</v>
+      </c>
+      <c r="T176">
+        <v>5</v>
+      </c>
+      <c r="U176">
+        <v>3</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11712,6 +13302,15 @@
       <c r="R177">
         <v>0.05136723741374905</v>
       </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177">
+        <v>5</v>
+      </c>
+      <c r="U177">
+        <v>3</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11776,6 +13375,15 @@
       <c r="R178">
         <v>0.01124456938410427</v>
       </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>5</v>
+      </c>
+      <c r="U178">
+        <v>3</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11840,6 +13448,15 @@
       <c r="R179">
         <v>0.01405571173013033</v>
       </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>5</v>
+      </c>
+      <c r="U179">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11904,6 +13521,15 @@
       <c r="R180">
         <v>0.0120112445693841</v>
       </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>5</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11968,6 +13594,15 @@
       <c r="R181">
         <v>0.01047789419882443</v>
       </c>
+      <c r="S181">
+        <v>2</v>
+      </c>
+      <c r="T181">
+        <v>5</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12032,6 +13667,15 @@
       <c r="R182">
         <v>0.1249680552006133</v>
       </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12096,6 +13740,15 @@
       <c r="R183">
         <v>0.2941477127523639</v>
       </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12160,6 +13813,15 @@
       <c r="R184">
         <v>0.4198824431382571</v>
       </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12224,6 +13886,15 @@
       <c r="R185">
         <v>0.1627906976744186</v>
       </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+      <c r="T185">
+        <v>3</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12288,6 +13959,15 @@
       <c r="R186">
         <v>0.03271147457193969</v>
       </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12352,6 +14032,15 @@
       <c r="R187">
         <v>0.04881165346281625</v>
       </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12416,6 +14105,15 @@
       <c r="R188">
         <v>0.09711219013544595</v>
       </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>2</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12480,6 +14178,15 @@
       <c r="R189">
         <v>0.03910043444927166</v>
       </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>3</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12544,6 +14251,15 @@
       <c r="R190">
         <v>0.05826731408126757</v>
       </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12608,6 +14324,15 @@
       <c r="R191">
         <v>0.4206491183235369</v>
       </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>2</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12672,6 +14397,15 @@
       <c r="R192">
         <v>0.05290058778430871</v>
       </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12736,6 +14470,15 @@
       <c r="R193">
         <v>0.06312292358803986</v>
       </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12800,6 +14543,15 @@
       <c r="R194">
         <v>0.09200102223358038</v>
       </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12864,6 +14616,15 @@
       <c r="R195">
         <v>0.2864809608995655</v>
       </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12928,6 +14689,15 @@
       <c r="R196">
         <v>0.290569895221058</v>
       </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12992,6 +14762,15 @@
       <c r="R197">
         <v>0.2435471505238947</v>
       </c>
+      <c r="S197">
+        <v>1</v>
+      </c>
+      <c r="T197">
+        <v>3</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13056,6 +14835,15 @@
       <c r="R198">
         <v>0.09787886532072579</v>
       </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13120,6 +14908,15 @@
       <c r="R199">
         <v>0.2031689240991567</v>
       </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13184,6 +14981,15 @@
       <c r="R200">
         <v>0.1730130334781498</v>
       </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>3</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13248,6 +15054,15 @@
       <c r="R201">
         <v>0.215435727063634</v>
       </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13312,6 +15127,15 @@
       <c r="R202">
         <v>0.2967032967032967</v>
       </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>3</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13376,6 +15200,15 @@
       <c r="R203">
         <v>0.07743419371326347</v>
       </c>
+      <c r="S203">
+        <v>1</v>
+      </c>
+      <c r="T203">
+        <v>3</v>
+      </c>
+      <c r="U203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -13440,6 +15273,15 @@
       <c r="R204">
         <v>0.2997699974444161</v>
       </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>3</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13504,6 +15346,15 @@
       <c r="R205">
         <v>0.3784819831331459</v>
       </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>3</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13568,6 +15419,15 @@
       <c r="R206">
         <v>0.2169690774341937</v>
       </c>
+      <c r="S206">
+        <v>1</v>
+      </c>
+      <c r="T206">
+        <v>4</v>
+      </c>
+      <c r="U206">
+        <v>2</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13632,6 +15492,15 @@
       <c r="R207">
         <v>0.2540250447227191</v>
       </c>
+      <c r="S207">
+        <v>1</v>
+      </c>
+      <c r="T207">
+        <v>4</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13696,6 +15565,15 @@
       <c r="R208">
         <v>0.2381804242269359</v>
       </c>
+      <c r="S208">
+        <v>1</v>
+      </c>
+      <c r="T208">
+        <v>4</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13760,6 +15638,15 @@
       <c r="R209">
         <v>0.2742141579350882</v>
       </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13824,6 +15711,15 @@
       <c r="R210">
         <v>0.03526705852287248</v>
       </c>
+      <c r="S210">
+        <v>1</v>
+      </c>
+      <c r="T210">
+        <v>4</v>
+      </c>
+      <c r="U210">
+        <v>3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13888,6 +15784,15 @@
       <c r="R211">
         <v>0.157679529772553</v>
       </c>
+      <c r="S211">
+        <v>1</v>
+      </c>
+      <c r="T211">
+        <v>4</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13952,6 +15857,15 @@
       <c r="R212">
         <v>0.1321236902632252</v>
       </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14016,6 +15930,15 @@
       <c r="R213">
         <v>0.2834142601584462</v>
       </c>
+      <c r="S213">
+        <v>1</v>
+      </c>
+      <c r="T213">
+        <v>4</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14080,6 +16003,15 @@
       <c r="R214">
         <v>0.2772808586762075</v>
       </c>
+      <c r="S214">
+        <v>1</v>
+      </c>
+      <c r="T214">
+        <v>4</v>
+      </c>
+      <c r="U214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14144,6 +16076,15 @@
       <c r="R215">
         <v>0.2353692818809098</v>
       </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14208,6 +16149,15 @@
       <c r="R216">
         <v>0.09557883976488628</v>
       </c>
+      <c r="S216">
+        <v>1</v>
+      </c>
+      <c r="T216">
+        <v>4</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -14272,6 +16222,15 @@
       <c r="R217">
         <v>0.121901354459494</v>
       </c>
+      <c r="S217">
+        <v>1</v>
+      </c>
+      <c r="T217">
+        <v>4</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14336,6 +16295,15 @@
       <c r="R218">
         <v>0.08280092001022234</v>
       </c>
+      <c r="S218">
+        <v>1</v>
+      </c>
+      <c r="T218">
+        <v>4</v>
+      </c>
+      <c r="U218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -14400,6 +16368,15 @@
       <c r="R219">
         <v>0.1198568872987478</v>
       </c>
+      <c r="S219">
+        <v>1</v>
+      </c>
+      <c r="T219">
+        <v>4</v>
+      </c>
+      <c r="U219">
+        <v>2</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -14464,6 +16441,15 @@
       <c r="R220">
         <v>0.1344237158190646</v>
       </c>
+      <c r="S220">
+        <v>1</v>
+      </c>
+      <c r="T220">
+        <v>4</v>
+      </c>
+      <c r="U220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -14528,6 +16514,15 @@
       <c r="R221">
         <v>0.1967799642218247</v>
       </c>
+      <c r="S221">
+        <v>1</v>
+      </c>
+      <c r="T221">
+        <v>4</v>
+      </c>
+      <c r="U221">
+        <v>3</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -14592,6 +16587,15 @@
       <c r="R222">
         <v>0.08561206235624841</v>
       </c>
+      <c r="S222">
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <v>4</v>
+      </c>
+      <c r="U222">
+        <v>3</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14656,6 +16660,15 @@
       <c r="R223">
         <v>0.1068234091489906</v>
       </c>
+      <c r="S223">
+        <v>1</v>
+      </c>
+      <c r="T223">
+        <v>4</v>
+      </c>
+      <c r="U223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -14720,6 +16733,15 @@
       <c r="R224">
         <v>0.3933043700485561</v>
       </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+      <c r="T224">
+        <v>4</v>
+      </c>
+      <c r="U224">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -14784,6 +16806,15 @@
       <c r="R225">
         <v>0.1259902887809864</v>
       </c>
+      <c r="S225">
+        <v>1</v>
+      </c>
+      <c r="T225">
+        <v>4</v>
+      </c>
+      <c r="U225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -14848,6 +16879,15 @@
       <c r="R226">
         <v>0</v>
       </c>
+      <c r="S226">
+        <v>1</v>
+      </c>
+      <c r="T226">
+        <v>4</v>
+      </c>
+      <c r="U226">
+        <v>3</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -14912,6 +16952,15 @@
       <c r="R227">
         <v>0.2075134168157424</v>
       </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -14976,6 +17025,15 @@
       <c r="R228">
         <v>0.1776130845898288</v>
       </c>
+      <c r="S228">
+        <v>1</v>
+      </c>
+      <c r="T228">
+        <v>4</v>
+      </c>
+      <c r="U228">
+        <v>3</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15040,6 +17098,15 @@
       <c r="R229">
         <v>0</v>
       </c>
+      <c r="S229">
+        <v>1</v>
+      </c>
+      <c r="T229">
+        <v>4</v>
+      </c>
+      <c r="U229">
+        <v>3</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15104,6 +17171,15 @@
       <c r="R230">
         <v>0.1635573728596984</v>
       </c>
+      <c r="S230">
+        <v>2</v>
+      </c>
+      <c r="T230">
+        <v>6</v>
+      </c>
+      <c r="U230">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15168,6 +17244,15 @@
       <c r="R231">
         <v>0.01456682852031689</v>
       </c>
+      <c r="S231">
+        <v>1</v>
+      </c>
+      <c r="T231">
+        <v>4</v>
+      </c>
+      <c r="U231">
+        <v>2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15232,6 +17317,15 @@
       <c r="R232">
         <v>0.01022233580373115</v>
       </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>2</v>
+      </c>
+      <c r="U232">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -15296,6 +17390,15 @@
       <c r="R233">
         <v>0.08918987988755431</v>
       </c>
+      <c r="S233">
+        <v>2</v>
+      </c>
+      <c r="T233">
+        <v>6</v>
+      </c>
+      <c r="U233">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -15360,6 +17463,15 @@
       <c r="R234">
         <v>0.02990033222591362</v>
       </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234">
+        <v>6</v>
+      </c>
+      <c r="U234">
+        <v>3</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -15424,6 +17536,15 @@
       <c r="R235">
         <v>0.01252236135957066</v>
       </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>6</v>
+      </c>
+      <c r="U235">
+        <v>2</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -15488,6 +17609,15 @@
       <c r="R236">
         <v>0.08637873754152824</v>
       </c>
+      <c r="S236">
+        <v>2</v>
+      </c>
+      <c r="T236">
+        <v>6</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -15552,6 +17682,15 @@
       <c r="R237">
         <v>0.01865576284180935</v>
       </c>
+      <c r="S237">
+        <v>2</v>
+      </c>
+      <c r="T237">
+        <v>6</v>
+      </c>
+      <c r="U237">
+        <v>3</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -15616,6 +17755,15 @@
       <c r="R238">
         <v>0.008944543828264758</v>
       </c>
+      <c r="S238">
+        <v>2</v>
+      </c>
+      <c r="T238">
+        <v>6</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -15680,6 +17828,15 @@
       <c r="R239">
         <v>0.08791208791208792</v>
       </c>
+      <c r="S239">
+        <v>1</v>
+      </c>
+      <c r="T239">
+        <v>4</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -15744,6 +17901,15 @@
       <c r="R240">
         <v>0.02427804753386149</v>
       </c>
+      <c r="S240">
+        <v>1</v>
+      </c>
+      <c r="T240">
+        <v>4</v>
+      </c>
+      <c r="U240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -15808,6 +17974,15 @@
       <c r="R241">
         <v>0.02453360592895477</v>
       </c>
+      <c r="S241">
+        <v>2</v>
+      </c>
+      <c r="T241">
+        <v>6</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -15872,6 +18047,15 @@
       <c r="R242">
         <v>0.0784564272936366</v>
       </c>
+      <c r="S242">
+        <v>2</v>
+      </c>
+      <c r="T242">
+        <v>5</v>
+      </c>
+      <c r="U242">
+        <v>2</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -15936,6 +18120,15 @@
       <c r="R243">
         <v>0.003322259136212625</v>
       </c>
+      <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
+        <v>5</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16000,6 +18193,15 @@
       <c r="R244">
         <v>0.02197802197802198</v>
       </c>
+      <c r="S244">
+        <v>2</v>
+      </c>
+      <c r="T244">
+        <v>5</v>
+      </c>
+      <c r="U244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16064,6 +18266,15 @@
       <c r="R245">
         <v>0.1719907998977766</v>
       </c>
+      <c r="S245">
+        <v>2</v>
+      </c>
+      <c r="T245">
+        <v>5</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16128,6 +18339,15 @@
       <c r="R246">
         <v>0.1625351392793253</v>
       </c>
+      <c r="S246">
+        <v>2</v>
+      </c>
+      <c r="T246">
+        <v>5</v>
+      </c>
+      <c r="U246">
+        <v>3</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16192,6 +18412,15 @@
       <c r="R247">
         <v>0.008688985433171479</v>
       </c>
+      <c r="S247">
+        <v>2</v>
+      </c>
+      <c r="T247">
+        <v>5</v>
+      </c>
+      <c r="U247">
+        <v>2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -16256,6 +18485,15 @@
       <c r="R248">
         <v>0.1055456171735241</v>
       </c>
+      <c r="S248">
+        <v>2</v>
+      </c>
+      <c r="T248">
+        <v>5</v>
+      </c>
+      <c r="U248">
+        <v>2</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -16320,6 +18558,15 @@
       <c r="R249">
         <v>0.1162790697674419</v>
       </c>
+      <c r="S249">
+        <v>2</v>
+      </c>
+      <c r="T249">
+        <v>5</v>
+      </c>
+      <c r="U249">
+        <v>3</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -16384,6 +18631,15 @@
       <c r="R250">
         <v>0.01865576284180935</v>
       </c>
+      <c r="S250">
+        <v>2</v>
+      </c>
+      <c r="T250">
+        <v>5</v>
+      </c>
+      <c r="U250">
+        <v>3</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -16448,6 +18704,15 @@
       <c r="R251">
         <v>0.1339125990288781</v>
       </c>
+      <c r="S251">
+        <v>2</v>
+      </c>
+      <c r="T251">
+        <v>5</v>
+      </c>
+      <c r="U251">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -16512,6 +18777,15 @@
       <c r="R252">
         <v>0.04906721185790953</v>
       </c>
+      <c r="S252">
+        <v>2</v>
+      </c>
+      <c r="T252">
+        <v>5</v>
+      </c>
+      <c r="U252">
+        <v>3</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -16576,6 +18850,15 @@
       <c r="R253">
         <v>0.007666751852798364</v>
       </c>
+      <c r="S253">
+        <v>2</v>
+      </c>
+      <c r="T253">
+        <v>5</v>
+      </c>
+      <c r="U253">
+        <v>2</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -16640,6 +18923,15 @@
       <c r="R254">
         <v>0.3005366726296959</v>
       </c>
+      <c r="S254">
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <v>2</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -16704,6 +18996,15 @@
       <c r="R255">
         <v>0.2139023766930744</v>
       </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <v>3</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -16768,6 +19069,15 @@
       <c r="R256">
         <v>0.4477383082034245</v>
       </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+      <c r="U256">
+        <v>3</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -16832,6 +19142,15 @@
       <c r="R257">
         <v>0.8668540761564018</v>
       </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <v>2</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -16896,6 +19215,15 @@
       <c r="R258">
         <v>0.08305647840531562</v>
       </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <v>3</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -16960,6 +19288,15 @@
       <c r="R259">
         <v>0.1290569895221058</v>
       </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="U259">
+        <v>3</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17024,6 +19361,15 @@
       <c r="R260">
         <v>0.5254280603117812</v>
       </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
+        <v>2</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -17088,6 +19434,15 @@
       <c r="R261">
         <v>0.2213135701507795</v>
       </c>
+      <c r="S261">
+        <v>1</v>
+      </c>
+      <c r="T261">
+        <v>4</v>
+      </c>
+      <c r="U261">
+        <v>2</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -17152,6 +19507,15 @@
       <c r="R262">
         <v>0.2864809608995655</v>
       </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>3</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -17216,6 +19580,15 @@
       <c r="R263">
         <v>0.867109634551495</v>
       </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>2</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -17280,6 +19653,15 @@
       <c r="R264">
         <v>0.6125734730385893</v>
       </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="U264">
+        <v>2</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -17344,6 +19726,15 @@
       <c r="R265">
         <v>0.3759263991822132</v>
       </c>
+      <c r="S265">
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <v>0</v>
+      </c>
+      <c r="U265">
+        <v>2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -17408,6 +19799,15 @@
       <c r="R266">
         <v>0.1022233580373115</v>
       </c>
+      <c r="S266">
+        <v>1</v>
+      </c>
+      <c r="T266">
+        <v>4</v>
+      </c>
+      <c r="U266">
+        <v>2</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -17472,6 +19872,15 @@
       <c r="R267">
         <v>0.03705596728852543</v>
       </c>
+      <c r="S267">
+        <v>1</v>
+      </c>
+      <c r="T267">
+        <v>4</v>
+      </c>
+      <c r="U267">
+        <v>2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -17536,6 +19945,15 @@
       <c r="R268">
         <v>0.06721185790953232</v>
       </c>
+      <c r="S268">
+        <v>1</v>
+      </c>
+      <c r="T268">
+        <v>4</v>
+      </c>
+      <c r="U268">
+        <v>2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -17600,6 +20018,15 @@
       <c r="R269">
         <v>0.0615895732174802</v>
       </c>
+      <c r="S269">
+        <v>1</v>
+      </c>
+      <c r="T269">
+        <v>4</v>
+      </c>
+      <c r="U269">
+        <v>2</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -17664,6 +20091,15 @@
       <c r="R270">
         <v>0.0470227446971633</v>
       </c>
+      <c r="S270">
+        <v>1</v>
+      </c>
+      <c r="T270">
+        <v>4</v>
+      </c>
+      <c r="U270">
+        <v>2</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -17728,6 +20164,15 @@
       <c r="R271">
         <v>0.05928954766164068</v>
       </c>
+      <c r="S271">
+        <v>1</v>
+      </c>
+      <c r="T271">
+        <v>4</v>
+      </c>
+      <c r="U271">
+        <v>2</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -17792,6 +20237,15 @@
       <c r="R272">
         <v>0.1801686685407616</v>
       </c>
+      <c r="S272">
+        <v>1</v>
+      </c>
+      <c r="T272">
+        <v>4</v>
+      </c>
+      <c r="U272">
+        <v>3</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -17856,6 +20310,15 @@
       <c r="R273">
         <v>0.03603373370815231</v>
       </c>
+      <c r="S273">
+        <v>1</v>
+      </c>
+      <c r="T273">
+        <v>4</v>
+      </c>
+      <c r="U273">
+        <v>3</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -17920,6 +20383,15 @@
       <c r="R274">
         <v>0.1298236647073856</v>
       </c>
+      <c r="S274">
+        <v>1</v>
+      </c>
+      <c r="T274">
+        <v>4</v>
+      </c>
+      <c r="U274">
+        <v>3</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -17984,6 +20456,15 @@
       <c r="R275">
         <v>0.1175568617429083</v>
       </c>
+      <c r="S275">
+        <v>1</v>
+      </c>
+      <c r="T275">
+        <v>4</v>
+      </c>
+      <c r="U275">
+        <v>2</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -18048,6 +20529,15 @@
       <c r="R276">
         <v>0.07053411704574496</v>
       </c>
+      <c r="S276">
+        <v>1</v>
+      </c>
+      <c r="T276">
+        <v>4</v>
+      </c>
+      <c r="U276">
+        <v>2</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -18112,6 +20602,15 @@
       <c r="R277">
         <v>0.09711219013544595</v>
       </c>
+      <c r="S277">
+        <v>1</v>
+      </c>
+      <c r="T277">
+        <v>4</v>
+      </c>
+      <c r="U277">
+        <v>2</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -18176,6 +20675,15 @@
       <c r="R278">
         <v>0.04830053667262969</v>
       </c>
+      <c r="S278">
+        <v>1</v>
+      </c>
+      <c r="T278">
+        <v>4</v>
+      </c>
+      <c r="U278">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -18240,6 +20748,15 @@
       <c r="R279">
         <v>0.04600051111679019</v>
       </c>
+      <c r="S279">
+        <v>1</v>
+      </c>
+      <c r="T279">
+        <v>4</v>
+      </c>
+      <c r="U279">
+        <v>2</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -18304,6 +20821,15 @@
       <c r="R280">
         <v>0.02760030667007411</v>
       </c>
+      <c r="S280">
+        <v>1</v>
+      </c>
+      <c r="T280">
+        <v>4</v>
+      </c>
+      <c r="U280">
+        <v>2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -18368,6 +20894,15 @@
       <c r="R281">
         <v>0.05213391259902888</v>
       </c>
+      <c r="S281">
+        <v>1</v>
+      </c>
+      <c r="T281">
+        <v>4</v>
+      </c>
+      <c r="U281">
+        <v>2</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -18432,6 +20967,15 @@
       <c r="R282">
         <v>0.05443393815486839</v>
       </c>
+      <c r="S282">
+        <v>1</v>
+      </c>
+      <c r="T282">
+        <v>4</v>
+      </c>
+      <c r="U282">
+        <v>2</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -18496,6 +21040,15 @@
       <c r="R283">
         <v>0.01712241247124968</v>
       </c>
+      <c r="S283">
+        <v>1</v>
+      </c>
+      <c r="T283">
+        <v>4</v>
+      </c>
+      <c r="U283">
+        <v>2</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -18560,6 +21113,15 @@
       <c r="R284">
         <v>0.2491694352159468</v>
       </c>
+      <c r="S284">
+        <v>1</v>
+      </c>
+      <c r="T284">
+        <v>4</v>
+      </c>
+      <c r="U284">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -18624,6 +21186,15 @@
       <c r="R285">
         <v>0.1939688218757986</v>
       </c>
+      <c r="S285">
+        <v>1</v>
+      </c>
+      <c r="T285">
+        <v>4</v>
+      </c>
+      <c r="U285">
+        <v>3</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -18688,6 +21259,15 @@
       <c r="R286">
         <v>0.03654485049833887</v>
       </c>
+      <c r="S286">
+        <v>1</v>
+      </c>
+      <c r="T286">
+        <v>4</v>
+      </c>
+      <c r="U286">
+        <v>2</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -18752,6 +21332,15 @@
       <c r="R287">
         <v>0.143879376437516</v>
       </c>
+      <c r="S287">
+        <v>1</v>
+      </c>
+      <c r="T287">
+        <v>4</v>
+      </c>
+      <c r="U287">
+        <v>2</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -18816,6 +21405,15 @@
       <c r="R288">
         <v>0.1765908510094557</v>
       </c>
+      <c r="S288">
+        <v>1</v>
+      </c>
+      <c r="T288">
+        <v>4</v>
+      </c>
+      <c r="U288">
+        <v>2</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -18880,6 +21478,15 @@
       <c r="R289">
         <v>0.08075645284947611</v>
       </c>
+      <c r="S289">
+        <v>1</v>
+      </c>
+      <c r="T289">
+        <v>4</v>
+      </c>
+      <c r="U289">
+        <v>2</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -18944,6 +21551,15 @@
       <c r="R290">
         <v>0.03220035778175313</v>
       </c>
+      <c r="S290">
+        <v>1</v>
+      </c>
+      <c r="T290">
+        <v>4</v>
+      </c>
+      <c r="U290">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -19008,6 +21624,15 @@
       <c r="R291">
         <v>0.03066700741119346</v>
       </c>
+      <c r="S291">
+        <v>1</v>
+      </c>
+      <c r="T291">
+        <v>4</v>
+      </c>
+      <c r="U291">
+        <v>2</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -19072,6 +21697,15 @@
       <c r="R292">
         <v>0.02683363148479427</v>
       </c>
+      <c r="S292">
+        <v>1</v>
+      </c>
+      <c r="T292">
+        <v>4</v>
+      </c>
+      <c r="U292">
+        <v>2</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -19136,6 +21770,15 @@
       <c r="R293">
         <v>0.04012266802964477</v>
       </c>
+      <c r="S293">
+        <v>1</v>
+      </c>
+      <c r="T293">
+        <v>4</v>
+      </c>
+      <c r="U293">
+        <v>2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -19200,6 +21843,15 @@
       <c r="R294">
         <v>0.02708918987988755</v>
       </c>
+      <c r="S294">
+        <v>2</v>
+      </c>
+      <c r="T294">
+        <v>6</v>
+      </c>
+      <c r="U294">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -19264,6 +21916,15 @@
       <c r="R295">
         <v>0.01175568617429083</v>
       </c>
+      <c r="S295">
+        <v>2</v>
+      </c>
+      <c r="T295">
+        <v>5</v>
+      </c>
+      <c r="U295">
+        <v>2</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -19328,6 +21989,15 @@
       <c r="R296">
         <v>0.04753386148734986</v>
       </c>
+      <c r="S296">
+        <v>1</v>
+      </c>
+      <c r="T296">
+        <v>4</v>
+      </c>
+      <c r="U296">
+        <v>2</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -19392,6 +22062,15 @@
       <c r="R297">
         <v>0.1190902121134679</v>
       </c>
+      <c r="S297">
+        <v>1</v>
+      </c>
+      <c r="T297">
+        <v>4</v>
+      </c>
+      <c r="U297">
+        <v>2</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -19456,6 +22135,15 @@
       <c r="R298">
         <v>0.1474571939688219</v>
       </c>
+      <c r="S298">
+        <v>1</v>
+      </c>
+      <c r="T298">
+        <v>4</v>
+      </c>
+      <c r="U298">
+        <v>3</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -19520,6 +22208,15 @@
       <c r="R299">
         <v>0.01354459493994378</v>
       </c>
+      <c r="S299">
+        <v>1</v>
+      </c>
+      <c r="T299">
+        <v>4</v>
+      </c>
+      <c r="U299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -19584,6 +22281,15 @@
       <c r="R300">
         <v>0.006644518272425249</v>
       </c>
+      <c r="S300">
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <v>0</v>
+      </c>
+      <c r="U300">
+        <v>2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -19647,6 +22353,15 @@
       </c>
       <c r="R301">
         <v>0.06056733963710708</v>
+      </c>
+      <c r="S301">
+        <v>0</v>
+      </c>
+      <c r="T301">
+        <v>1</v>
+      </c>
+      <c r="U301">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_sampling.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_sampling.xlsx
@@ -24328,6 +24328,9 @@
       <c r="S328">
         <v>0</v>
       </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
       <c r="U328">
         <v>2</v>
       </c>
@@ -24398,6 +24401,9 @@
       <c r="S329">
         <v>0</v>
       </c>
+      <c r="T329">
+        <v>0</v>
+      </c>
       <c r="U329">
         <v>2</v>
       </c>
@@ -24468,6 +24474,9 @@
       <c r="S330">
         <v>0</v>
       </c>
+      <c r="T330">
+        <v>0</v>
+      </c>
       <c r="U330">
         <v>2</v>
       </c>
@@ -24538,6 +24547,9 @@
       <c r="S331">
         <v>0</v>
       </c>
+      <c r="T331">
+        <v>0</v>
+      </c>
       <c r="U331">
         <v>2</v>
       </c>
@@ -24608,6 +24620,9 @@
       <c r="S332">
         <v>0</v>
       </c>
+      <c r="T332">
+        <v>0</v>
+      </c>
       <c r="U332">
         <v>2</v>
       </c>
@@ -24751,6 +24766,9 @@
       <c r="S334">
         <v>0</v>
       </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
       <c r="U334">
         <v>2</v>
       </c>
@@ -24821,6 +24839,9 @@
       <c r="S335">
         <v>0</v>
       </c>
+      <c r="T335">
+        <v>0</v>
+      </c>
       <c r="U335">
         <v>2</v>
       </c>
@@ -26132,6 +26153,9 @@
       <c r="S353">
         <v>0</v>
       </c>
+      <c r="T353">
+        <v>0</v>
+      </c>
       <c r="U353">
         <v>2</v>
       </c>
@@ -26202,6 +26226,9 @@
       <c r="S354">
         <v>0</v>
       </c>
+      <c r="T354">
+        <v>0</v>
+      </c>
       <c r="U354">
         <v>2</v>
       </c>
@@ -26272,6 +26299,9 @@
       <c r="S355">
         <v>0</v>
       </c>
+      <c r="T355">
+        <v>0</v>
+      </c>
       <c r="U355">
         <v>2</v>
       </c>
@@ -26342,6 +26372,9 @@
       <c r="S356">
         <v>0</v>
       </c>
+      <c r="T356">
+        <v>0</v>
+      </c>
       <c r="U356">
         <v>2</v>
       </c>
@@ -26412,6 +26445,9 @@
       <c r="S357">
         <v>0</v>
       </c>
+      <c r="T357">
+        <v>0</v>
+      </c>
       <c r="U357">
         <v>2</v>
       </c>
@@ -26482,6 +26518,9 @@
       <c r="S358">
         <v>0</v>
       </c>
+      <c r="T358">
+        <v>0</v>
+      </c>
       <c r="U358">
         <v>2</v>
       </c>
@@ -26552,6 +26591,9 @@
       <c r="S359">
         <v>0</v>
       </c>
+      <c r="T359">
+        <v>0</v>
+      </c>
       <c r="U359">
         <v>2</v>
       </c>
@@ -26622,6 +26664,9 @@
       <c r="S360">
         <v>0</v>
       </c>
+      <c r="T360">
+        <v>0</v>
+      </c>
       <c r="U360">
         <v>2</v>
       </c>
@@ -26692,6 +26737,9 @@
       <c r="S361">
         <v>0</v>
       </c>
+      <c r="T361">
+        <v>0</v>
+      </c>
       <c r="U361">
         <v>2</v>
       </c>
@@ -26762,6 +26810,9 @@
       <c r="S362">
         <v>0</v>
       </c>
+      <c r="T362">
+        <v>0</v>
+      </c>
       <c r="U362">
         <v>2</v>
       </c>
@@ -26832,6 +26883,9 @@
       <c r="S363">
         <v>0</v>
       </c>
+      <c r="T363">
+        <v>0</v>
+      </c>
       <c r="U363">
         <v>2</v>
       </c>
@@ -26902,6 +26956,9 @@
       <c r="S364">
         <v>0</v>
       </c>
+      <c r="T364">
+        <v>0</v>
+      </c>
       <c r="U364">
         <v>2</v>
       </c>
@@ -26972,6 +27029,9 @@
       <c r="S365">
         <v>0</v>
       </c>
+      <c r="T365">
+        <v>0</v>
+      </c>
       <c r="U365">
         <v>2</v>
       </c>
@@ -27042,6 +27102,9 @@
       <c r="S366">
         <v>0</v>
       </c>
+      <c r="T366">
+        <v>0</v>
+      </c>
       <c r="U366">
         <v>2</v>
       </c>
@@ -27112,6 +27175,9 @@
       <c r="S367">
         <v>0</v>
       </c>
+      <c r="T367">
+        <v>0</v>
+      </c>
       <c r="U367">
         <v>2</v>
       </c>
@@ -27182,6 +27248,9 @@
       <c r="S368">
         <v>0</v>
       </c>
+      <c r="T368">
+        <v>0</v>
+      </c>
       <c r="U368">
         <v>2</v>
       </c>
@@ -27252,6 +27321,9 @@
       <c r="S369">
         <v>0</v>
       </c>
+      <c r="T369">
+        <v>0</v>
+      </c>
       <c r="U369">
         <v>2</v>
       </c>
@@ -27322,6 +27394,9 @@
       <c r="S370">
         <v>0</v>
       </c>
+      <c r="T370">
+        <v>0</v>
+      </c>
       <c r="U370">
         <v>2</v>
       </c>
@@ -27465,6 +27540,9 @@
       <c r="S372">
         <v>0</v>
       </c>
+      <c r="T372">
+        <v>0</v>
+      </c>
       <c r="U372">
         <v>2</v>
       </c>
@@ -27533,6 +27611,9 @@
         <v>0.52</v>
       </c>
       <c r="S373">
+        <v>0</v>
+      </c>
+      <c r="T373">
         <v>0</v>
       </c>
       <c r="U373">
